--- a/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-15.21809806937282</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-60.27396417485198</v>
+        <v>-60.27396417485197</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.2652986902766497</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.06898055905854</v>
+        <v>-14.11899508067183</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.41497191470815</v>
+        <v>-19.23229732435042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-58.2757530021012</v>
+        <v>-58.9254595736945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.125526569912209</v>
+        <v>-8.120927871355379</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-25.13603136414032</v>
+        <v>-25.46137511983855</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-67.30840766202139</v>
+        <v>-68.21313012378504</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.952939203488008</v>
+        <v>-7.650590620326006</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-20.78288997476804</v>
+        <v>-19.50068313270108</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-61.13713632392312</v>
+        <v>-60.95514349469309</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.761391997259306</v>
+        <v>8.571131060271032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.999908354188852</v>
+        <v>2.583042303778306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-41.60002496718211</v>
+        <v>-40.75329054575699</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.95056238211481</v>
+        <v>11.58719626240482</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-5.387123881356024</v>
+        <v>-4.676503158431582</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-51.99617780000237</v>
+        <v>-52.28772050471777</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.852465114542175</v>
+        <v>7.569307510325293</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.438262859684011</v>
+        <v>-3.864180749863337</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-49.69718171834438</v>
+        <v>-50.09923918611992</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.231131676831058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.9154378126282372</v>
+        <v>-0.9154378126282371</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.004423311181906794</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2465625994755753</v>
+        <v>-0.2400187695499989</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3396197137523153</v>
+        <v>-0.3305638368322391</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9662441141844876</v>
+        <v>-0.9664695718955088</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1178128355530776</v>
+        <v>-0.1160232721527782</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3593108025326997</v>
+        <v>-0.3640614292169486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9431898755475906</v>
+        <v>-0.9444651353488611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1227231039062014</v>
+        <v>-0.1205655731151796</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3231283708204963</v>
+        <v>-0.3029501890097988</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.9455738748140263</v>
+        <v>-0.9467924089715924</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1838492279342232</v>
+        <v>0.1873828797341803</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05148417754743168</v>
+        <v>0.05175202068215293</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.8879719793783132</v>
+        <v>-0.891035064309631</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1980797769366609</v>
+        <v>0.1928026819489125</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09021932184661866</v>
+        <v>-0.07770417827683493</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.8781416187885643</v>
+        <v>-0.8795819424452701</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1247960927515698</v>
+        <v>0.1349197533908029</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.08155191973062452</v>
+        <v>-0.07279002173080477</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.8971357469751032</v>
+        <v>-0.8951348179963453</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.986841156531584</v>
+        <v>6.201368162658641</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.080203068903276</v>
+        <v>2.378091776651008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-27.50427781069452</v>
+        <v>-27.78788193778426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.2250131320161</v>
+        <v>12.773125537662</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5105099178706739</v>
+        <v>0.2655386710632301</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-33.57713251432803</v>
+        <v>-33.21832542155963</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>11.7473425195654</v>
+        <v>11.31158790324021</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.321543570425613</v>
+        <v>2.846140526862355</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-29.67345592080625</v>
+        <v>-29.36105995821707</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.16485348479589</v>
+        <v>21.97547310482782</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.61688292309809</v>
+        <v>18.43247101476879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-15.73436179220684</v>
+        <v>-15.89359121475542</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.74248322937419</v>
+        <v>26.93021604887529</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.40331073403003</v>
+        <v>15.14065622829275</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-21.705350306742</v>
+        <v>-21.34888640648068</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>22.3660968233073</v>
+        <v>22.10648980725276</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.44129571406937</v>
+        <v>14.26770691957136</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-21.14970937896673</v>
+        <v>-21.17476508899878</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1963755346755614</v>
+        <v>0.1841819857636251</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06522517937458217</v>
+        <v>0.07285508494401878</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8453996878986872</v>
+        <v>-0.8577021039086513</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2807683216830539</v>
+        <v>0.2917234180659813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01020145303073791</v>
+        <v>0.005076459635232417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7477285482976481</v>
+        <v>-0.7470744533469373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3110567369856246</v>
+        <v>0.2952614866681252</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09066329378453136</v>
+        <v>0.07477823546394505</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7765476646331566</v>
+        <v>-0.772097957492344</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.937776254150134</v>
+        <v>0.9032081298558663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7788651787508821</v>
+        <v>0.7405498873339377</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.6374888603520085</v>
+        <v>-0.6417218853278789</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7318698559114272</v>
+        <v>0.7323957042965208</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4233648634533406</v>
+        <v>0.4165091846041509</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5884238489893668</v>
+        <v>-0.5862566205424302</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6827747805017613</v>
+        <v>0.6824998225693424</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4467030424793597</v>
+        <v>0.4381634753769653</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.6495704868444249</v>
+        <v>-0.6538395352143778</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.579784759462741</v>
+        <v>2.820134392058828</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.19097075999964</v>
+        <v>-10.59564141955649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-41.2035870428905</v>
+        <v>-41.68635212435568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.033078985635816</v>
+        <v>0.4170119020388347</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-15.05054159551285</v>
+        <v>-14.95501283221685</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-47.91949649389112</v>
+        <v>-48.68889903729286</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.124748184351346</v>
+        <v>4.924655720319043</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.02384265508727</v>
+        <v>-9.638329035174637</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-43.51732829553042</v>
+        <v>-43.12775149840245</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.72613848479122</v>
+        <v>22.95646897917015</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.469301386460085</v>
+        <v>9.196456839455212</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-26.39319594521927</v>
+        <v>-26.89304933023496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.9379198713026</v>
+        <v>20.30152254866154</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.245996143218953</v>
+        <v>3.616132768737305</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-34.11491174974846</v>
+        <v>-34.87475267140167</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.40596803684597</v>
+        <v>18.14596788210331</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.401895169867149</v>
+        <v>3.232417346954628</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-33.64064087482011</v>
+        <v>-32.70964252183722</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05758559452788654</v>
+        <v>0.06682534096131357</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2560305415602283</v>
+        <v>-0.2465487543219937</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.9094096371574413</v>
+        <v>-0.9124400982472214</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01380338088042278</v>
+        <v>0.007063301500493791</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2822309670286482</v>
+        <v>-0.2808600241055771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9034227395998676</v>
+        <v>-0.9015709240045119</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07738246029373452</v>
+        <v>0.1039678872541768</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.209129669599096</v>
+        <v>-0.2032741936718253</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8967229951864277</v>
+        <v>-0.8983931478145712</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7168529109594133</v>
+        <v>0.6931858414899043</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2716396279543671</v>
+        <v>0.2623488232698364</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.7711888003123974</v>
+        <v>-0.7749462153205358</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4639679613770681</v>
+        <v>0.4547282007307468</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1001276545114105</v>
+        <v>0.08833559184578853</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.8022155426209151</v>
+        <v>-0.8030907949119283</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4582343894979068</v>
+        <v>0.4360487817694234</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08403037239243552</v>
+        <v>0.07687682297651452</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.816787722334149</v>
+        <v>-0.8148997338129069</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.682173417983708</v>
+        <v>-7.089999206383546</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-22.12052325565652</v>
+        <v>-22.33780979945821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-45.10269382173759</v>
+        <v>-45.32242791145038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.486854958450541</v>
+        <v>4.723978285865866</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.300353589435685</v>
+        <v>-8.2660613621922</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-42.80277300327095</v>
+        <v>-43.51171873870526</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7465078121339256</v>
+        <v>1.900475593172032</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-12.11995805708436</v>
+        <v>-11.60009252102348</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-41.71170402578592</v>
+        <v>-41.87977477229822</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.52716888940545</v>
+        <v>12.51960637065523</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.264298911922786</v>
+        <v>-2.746221024100923</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-29.17737793346359</v>
+        <v>-29.16269460128385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21.3187708153196</v>
+        <v>20.91052906413442</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.416288944025908</v>
+        <v>8.265766901614962</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-28.69396325000371</v>
+        <v>-28.60623636513882</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.70914242909881</v>
+        <v>14.70535987128222</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9567721977938352</v>
+        <v>1.474057401983116</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-31.24151042191745</v>
+        <v>-31.28521338838015</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1502917425094602</v>
+        <v>-0.1385667917930992</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4356259398314947</v>
+        <v>-0.4403253303876226</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8777292812845179</v>
+        <v>-0.8875138942413325</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08740752107219472</v>
+        <v>0.08876574361828676</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1847237105310281</v>
+        <v>-0.1553305314048986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7867500158286626</v>
+        <v>-0.7994213928038361</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01446924572219633</v>
+        <v>0.0371666329726834</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2366306331652072</v>
+        <v>-0.2275344351306197</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8138506407974886</v>
+        <v>-0.8143931813683978</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2932367339127208</v>
+        <v>0.3213928947588114</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.05353102051332384</v>
+        <v>-0.06358822167751256</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.687211688943705</v>
+        <v>-0.7019323499406585</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4893601054554703</v>
+        <v>0.4692452302212115</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1845773008297077</v>
+        <v>0.189607667579708</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.6382060196666121</v>
+        <v>-0.6533936772661141</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3095568979879837</v>
+        <v>0.3253199089985318</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.022083882230893</v>
+        <v>0.03338669264084151</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.6982045570616556</v>
+        <v>-0.699427105606283</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.988133561338083</v>
+        <v>-3.310615511170113</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>16.77349275128473</v>
+        <v>17.38910473268825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-30.72465486169303</v>
+        <v>-30.69252140670742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10.98329053048615</v>
+        <v>9.596695715720331</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>13.18281768077856</v>
+        <v>14.25805178882282</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-38.34220265307292</v>
+        <v>-37.97320191103967</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.577215386118811</v>
+        <v>6.547340640995919</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>18.79190940155859</v>
+        <v>17.75525459156137</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-31.80968537905659</v>
+        <v>-31.82107484954358</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.39062917461642</v>
+        <v>20.88482736833621</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>41.09601242305849</v>
+        <v>40.83960045233832</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-11.4580712258122</v>
+        <v>-11.97609565912881</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32.14691505651201</v>
+        <v>31.23944217904737</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>34.63757136160293</v>
+        <v>35.34261840442821</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-20.92641328167961</v>
+        <v>-20.97518473569102</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>23.9615290971734</v>
+        <v>22.79293001817612</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>35.71364498601547</v>
+        <v>34.46078116471112</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-19.25933033182122</v>
+        <v>-19.00389545243715</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.9931207539921638</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.6996262474444525</v>
+        <v>-0.6996262474444526</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5861947677617704</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1112880530362746</v>
+        <v>-0.09900388736986412</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4427610767831124</v>
+        <v>0.4781866557800483</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8289703538264865</v>
+        <v>-0.8319000394580252</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2579298237690437</v>
+        <v>0.2310866157769492</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3170500237904186</v>
+        <v>0.3457291504213503</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8868836087700372</v>
+        <v>-0.8839519983395295</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1961945039624414</v>
+        <v>0.1685279088154736</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4918225862595524</v>
+        <v>0.4637109573822528</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8386914393765433</v>
+        <v>-0.8373787998285831</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8610420945145398</v>
+        <v>0.950130133516132</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.814390464897865</v>
+        <v>1.904139733585492</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4774967965803019</v>
+        <v>-0.4952641924508908</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.076894035503674</v>
+        <v>1.043400849203218</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.136115871765333</v>
+        <v>1.201151965567729</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.7058657703030051</v>
+        <v>-0.7120196692954476</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8570336640998496</v>
+        <v>0.7979684195353223</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.286433557568418</v>
+        <v>1.194156431980383</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.6687323414009727</v>
+        <v>-0.67694674967123</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.156485571352794</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-28.11984830242896</v>
+        <v>-28.11984830242897</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>12.53024954323652</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.93225337773599</v>
+        <v>-3.57821251591861</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-13.16315507308187</v>
+        <v>-13.49013174228553</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-40.06621744296481</v>
+        <v>-39.75755865902165</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7.948671647349088</v>
+        <v>7.063261252932375</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.06370785693349</v>
+        <v>-9.295140032282449</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-36.87351286738495</v>
+        <v>-36.60396708003394</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.540153529644541</v>
+        <v>5.196137730513579</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-8.208627206689686</v>
+        <v>-8.393469232901658</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-35.42202932680786</v>
+        <v>-35.91738233185125</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>17.78728670178752</v>
+        <v>17.09792835856951</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.10211265904829</v>
+        <v>7.631387238313844</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-23.45031063398445</v>
+        <v>-22.52032967927074</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27.14456398473869</v>
+        <v>27.22386746766304</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.52146719048196</v>
+        <v>12.06514081206991</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-21.13473390532079</v>
+        <v>-19.58649501847258</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>20.64032526124872</v>
+        <v>19.92998894196467</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.237035321378313</v>
+        <v>6.838828320175919</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-24.37141910601211</v>
+        <v>-24.02302473918881</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.02858027845550076</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.6949270397466063</v>
+        <v>-0.6949270397466065</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3007770865607023</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07876701355827115</v>
+        <v>-0.06814975364439722</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2893285174127759</v>
+        <v>-0.287191246301446</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8084228954590922</v>
+        <v>-0.8169054118923135</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1643315214250077</v>
+        <v>0.1630535161373549</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2009414268274171</v>
+        <v>-0.2078945570774876</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7922051119461114</v>
+        <v>-0.7757371951499272</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1234824503031822</v>
+        <v>0.1141899649365156</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1856360034086203</v>
+        <v>-0.1875798157622625</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7714009603283772</v>
+        <v>-0.7731380298064919</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4718102475193062</v>
+        <v>0.4716145399686401</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2055684511488172</v>
+        <v>0.2044565544779373</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.6255975168943974</v>
+        <v>-0.6091202571508331</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.793548585683607</v>
+        <v>0.7983647847278563</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3637830702514198</v>
+        <v>0.3408476788004336</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.5904404224421473</v>
+        <v>-0.5696681469751932</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.557837377678474</v>
+        <v>0.5293972713810348</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1988295737854679</v>
+        <v>0.1784028739378554</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.6313735638242787</v>
+        <v>-0.6373773668536138</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>19.28914091746527</v>
+        <v>18.7955609255408</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.668472094141062</v>
+        <v>-0.3473820129490552</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-36.97069407270318</v>
+        <v>-37.04053810227804</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.184831796499074</v>
+        <v>6.05969243282205</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.160350584681636</v>
+        <v>-8.904353817278684</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-51.4456717655078</v>
+        <v>-51.46575058310076</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>13.30198540010633</v>
+        <v>13.74682550572542</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.029184860820868</v>
+        <v>-3.093466545603145</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-43.67767050518802</v>
+        <v>-43.90324550007508</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>33.56767519524007</v>
+        <v>33.51065404945278</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>14.82515976948006</v>
+        <v>15.34663865673023</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-26.53981673224166</v>
+        <v>-25.86823783694297</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19.46881926479314</v>
+        <v>18.33276676214099</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.193202436055874</v>
+        <v>4.367292322528191</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-42.26506285898937</v>
+        <v>-41.88246938136756</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>23.42214860749769</v>
+        <v>23.52396042304425</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.92677148800379</v>
+        <v>7.297387742426116</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-36.40902402071121</v>
+        <v>-36.32959766335582</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4858040070423024</v>
+        <v>0.4803725014451335</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.01364265797003978</v>
+        <v>-0.01015827426626537</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.9436068927356626</v>
+        <v>-0.943007968293849</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1123350239118573</v>
+        <v>0.1081622804345021</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1670864131465878</v>
+        <v>-0.1628188803513688</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.9276286007273706</v>
+        <v>-0.9290256645057845</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2839831745809915</v>
+        <v>0.2961022854301709</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.06387766198407839</v>
+        <v>-0.06818707137316633</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.9274679597308647</v>
+        <v>-0.9292682207904199</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.082239295085814</v>
+        <v>1.093165576169501</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4844795574838739</v>
+        <v>0.4967395528261962</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.8469788698422561</v>
+        <v>-0.8458481781387692</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4047336382004108</v>
+        <v>0.3791467600609805</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.0859107055433672</v>
+        <v>0.09240950566454856</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.8741328886793799</v>
+        <v>-0.8732023001699082</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5627184571779252</v>
+        <v>0.57567420299475</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1658735298265555</v>
+        <v>0.1704473939730184</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.8787740480182125</v>
+        <v>-0.8775791034904472</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>17.8983085196618</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-13.77631649372711</v>
+        <v>-13.7763164937271</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>17.45296082236267</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.568820406054492</v>
+        <v>7.192251076612415</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>12.5266042948233</v>
+        <v>11.70031928899967</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-20.83646656418292</v>
+        <v>-20.33445332647072</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14.73566387553944</v>
+        <v>14.15971457127924</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>11.80583175008</v>
+        <v>12.30835630908471</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-18.65506297938499</v>
+        <v>-18.74958930578982</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>12.92093410335463</v>
+        <v>13.25623447888384</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>13.97096803893944</v>
+        <v>13.94824656921389</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-18.44397809252613</v>
+        <v>-18.46150715919</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>20.54502021794281</v>
+        <v>19.39049414383928</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>25.88656022977197</v>
+        <v>24.771170654768</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-9.786943043773878</v>
+        <v>-10.38933097757176</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>27.27754009085485</v>
+        <v>25.75446474517313</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>24.25282011628124</v>
+        <v>23.65112320976394</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-8.70765402101439</v>
+        <v>-8.532823944202184</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>21.95309279481518</v>
+        <v>21.55717550038248</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>22.66846522412406</v>
+        <v>22.77487623221515</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-11.07809043431281</v>
+        <v>-10.84408836171223</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.4358903146942775</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3355044933537744</v>
+        <v>-0.3355044933537742</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.4667282831220403</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1768923093648523</v>
+        <v>0.195528749001128</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.3344292668364359</v>
+        <v>0.3302201213887749</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5666937628088047</v>
+        <v>-0.5589227174347448</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.3323813868275102</v>
+        <v>0.3211275594888153</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2692635065442594</v>
+        <v>0.2797068993975987</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4188326650563106</v>
+        <v>-0.422771709792145</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3255215426682244</v>
+        <v>0.3328496288366081</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.3483221965786862</v>
+        <v>0.3514877732193444</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4598148753119708</v>
+        <v>-0.4629212639190273</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6919939535641156</v>
+        <v>0.6430926139593286</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.886323890325288</v>
+        <v>0.8313108642730155</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3352314319506135</v>
+        <v>-0.3522424955326697</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7248785373185702</v>
+        <v>0.6886507975037194</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6411041570180555</v>
+        <v>0.6278062414621597</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2333137667349708</v>
+        <v>-0.2276925520910733</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.634981864680123</v>
+        <v>0.6110408406049282</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6522569889066427</v>
+        <v>0.6472546801224491</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.3186052568812064</v>
+        <v>-0.3112342016019502</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>5.258680083471868</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-33.14132980865759</v>
+        <v>-33.1413298086576</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>14.07607365812965</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>8.988706025568607</v>
+        <v>9.508063018258268</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>3.908413989536286</v>
+        <v>4.18461265446636</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-30.66653645947948</v>
+        <v>-30.56730287989927</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>12.72571583392202</v>
+        <v>12.61841879608239</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.232122968484953</v>
+        <v>2.321518238752105</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-35.37483780558826</v>
+        <v>-35.43268219202842</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>12.14137655009234</v>
+        <v>11.94439482415297</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>3.983963245259301</v>
+        <v>4.188436797923429</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-32.66875076008438</v>
+        <v>-32.75163548037531</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>15.59320481699913</v>
+        <v>15.89885074339545</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>10.46965192889921</v>
+        <v>10.79508107974475</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-25.55459814178755</v>
+        <v>-25.70439220908034</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>18.56665961419815</v>
+        <v>18.34863710884325</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8.177824355319979</v>
+        <v>8.247994931157347</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-30.97163859121524</v>
+        <v>-30.83847576197972</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>16.18457204195215</v>
+        <v>16.11553061188163</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>8.265469406411489</v>
+        <v>8.31357466164436</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-29.36240541254032</v>
+        <v>-29.40440539079973</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.1143114269159833</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.7204151308287373</v>
+        <v>-0.7204151308287374</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.3359356718025268</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2323895764665732</v>
+        <v>0.245101033834734</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1037368295791285</v>
+        <v>0.1060902035518787</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.7895116491357169</v>
+        <v>-0.7897895445626395</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2698603435233789</v>
+        <v>0.2660773674980974</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.04645604405871395</v>
+        <v>0.05034387036158397</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.7457363769825026</v>
+        <v>-0.7458564304514401</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2822893620081436</v>
+        <v>0.2756680834632499</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.0935895773371835</v>
+        <v>0.09890152926830517</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.7582243714897505</v>
+        <v>-0.7584026681640808</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4396297865331147</v>
+        <v>0.4448334502889392</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.297024359708756</v>
+        <v>0.3049342986359384</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.7240855820025482</v>
+        <v>-0.7268931036419738</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4243256769008434</v>
+        <v>0.4171765840391672</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1845661093640756</v>
+        <v>0.1870370936559985</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.6969627180442853</v>
+        <v>-0.694906390071062</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3948117227021385</v>
+        <v>0.395522514873255</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2019735195561468</v>
+        <v>0.2037604092632194</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.7190912471929434</v>
+        <v>-0.7207726802823043</v>
       </c>
     </row>
     <row r="58">
